--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inhba-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inhba-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Eng</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H2">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I2">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J2">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N2">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O2">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P2">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q2">
-        <v>34.24064070372399</v>
+        <v>186.583708697001</v>
       </c>
       <c r="R2">
-        <v>136.962562814896</v>
+        <v>746.3348347880039</v>
       </c>
       <c r="S2">
-        <v>0.006068874245068222</v>
+        <v>0.02299855623996609</v>
       </c>
       <c r="T2">
-        <v>0.003903907057670297</v>
+        <v>0.016212974600803</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H3">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I3">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J3">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>125.450742</v>
       </c>
       <c r="O3">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P3">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q3">
-        <v>5.506053974836999</v>
+        <v>32.393827873869</v>
       </c>
       <c r="R3">
-        <v>33.036323849022</v>
+        <v>194.362967243214</v>
       </c>
       <c r="S3">
-        <v>0.0009759031511407881</v>
+        <v>0.003992906333504196</v>
       </c>
       <c r="T3">
-        <v>0.0009416495660057242</v>
+        <v>0.004222236058626464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H4">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I4">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J4">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N4">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O4">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P4">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q4">
-        <v>1.053676541876833</v>
+        <v>2.5620030097585</v>
       </c>
       <c r="R4">
-        <v>6.322059251261</v>
+        <v>15.372018058551</v>
       </c>
       <c r="S4">
-        <v>0.0001867555716308015</v>
+        <v>0.0003157959005015764</v>
       </c>
       <c r="T4">
-        <v>0.0001802005688471489</v>
+        <v>0.0003339334126312957</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H5">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I5">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J5">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N5">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O5">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P5">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q5">
-        <v>1.30436187815375</v>
+        <v>14.538428187822</v>
       </c>
       <c r="R5">
-        <v>5.217447512615</v>
+        <v>58.15371275128799</v>
       </c>
       <c r="S5">
-        <v>0.0002311875025082451</v>
+        <v>0.00179202600620033</v>
       </c>
       <c r="T5">
-        <v>0.0001487153113150331</v>
+        <v>0.001263299827143725</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H6">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I6">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J6">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N6">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O6">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P6">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q6">
-        <v>20.9811357604095</v>
+        <v>1.524014587634</v>
       </c>
       <c r="R6">
-        <v>125.886814562457</v>
+        <v>9.144087525803998</v>
       </c>
       <c r="S6">
-        <v>0.003718735158912507</v>
+        <v>0.0001878520662334366</v>
       </c>
       <c r="T6">
-        <v>0.003588209900118472</v>
+        <v>0.0001986412155684666</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H7">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I7">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J7">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N7">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O7">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P7">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q7">
-        <v>1.116377200063666</v>
+        <v>4.558601372170999</v>
       </c>
       <c r="R7">
-        <v>6.698263200382</v>
+        <v>27.351608233026</v>
       </c>
       <c r="S7">
-        <v>0.0001978687518107948</v>
+        <v>0.0005618992717296462</v>
       </c>
       <c r="T7">
-        <v>0.0001909236834115412</v>
+        <v>0.0005941715553168932</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>18.204484</v>
       </c>
       <c r="I8">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J8">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N8">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O8">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P8">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q8">
-        <v>1578.01278150305</v>
+        <v>1461.573127442701</v>
       </c>
       <c r="R8">
-        <v>9468.076689018302</v>
+        <v>8769.438764656208</v>
       </c>
       <c r="S8">
-        <v>0.279689892806555</v>
+        <v>0.1801554487530367</v>
       </c>
       <c r="T8">
-        <v>0.2698729539602492</v>
+        <v>0.1905025483569371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>18.204484</v>
       </c>
       <c r="I9">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J9">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>125.450742</v>
       </c>
       <c r="O9">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P9">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q9">
-        <v>253.7517806141253</v>
+        <v>253.7517806141254</v>
       </c>
       <c r="R9">
         <v>2283.766025527128</v>
       </c>
       <c r="S9">
-        <v>0.04497543312154725</v>
+        <v>0.03127778217187566</v>
       </c>
       <c r="T9">
-        <v>0.06509523567525813</v>
+        <v>0.04961129889718408</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>18.204484</v>
       </c>
       <c r="I10">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J10">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N10">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O10">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P10">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q10">
-        <v>48.55969445895156</v>
+        <v>20.06903377385022</v>
       </c>
       <c r="R10">
-        <v>437.037250130564</v>
+        <v>180.621303964652</v>
       </c>
       <c r="S10">
-        <v>0.008606809714815339</v>
+        <v>0.002473735810875175</v>
       </c>
       <c r="T10">
-        <v>0.01245707418278513</v>
+        <v>0.003923719592124674</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>18.204484</v>
       </c>
       <c r="I11">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J11">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N11">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O11">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P11">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q11">
-        <v>60.11276871954334</v>
+        <v>113.884412004496</v>
       </c>
       <c r="R11">
-        <v>360.67661231726</v>
+        <v>683.3064720269761</v>
       </c>
       <c r="S11">
-        <v>0.01065449788274849</v>
+        <v>0.01403754418127808</v>
       </c>
       <c r="T11">
-        <v>0.01028053172650495</v>
+        <v>0.01484378051130964</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>18.204484</v>
       </c>
       <c r="I12">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J12">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N12">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O12">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P12">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q12">
-        <v>966.9357733944521</v>
+        <v>11.93812033575644</v>
       </c>
       <c r="R12">
-        <v>8702.421960550069</v>
+        <v>107.443083021808</v>
       </c>
       <c r="S12">
-        <v>0.1713814780092736</v>
+        <v>0.001471508599859825</v>
       </c>
       <c r="T12">
-        <v>0.2480491443237032</v>
+        <v>0.002334035468891584</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>18.204484</v>
       </c>
       <c r="I13">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J13">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N13">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O13">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P13">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q13">
-        <v>51.44931445419644</v>
+        <v>35.70906222637244</v>
       </c>
       <c r="R13">
-        <v>463.043830087768</v>
+        <v>321.381560037352</v>
       </c>
       <c r="S13">
-        <v>0.009118971286758953</v>
+        <v>0.004401546531714296</v>
       </c>
       <c r="T13">
-        <v>0.01319835171844288</v>
+        <v>0.006981519322399161</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H14">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I14">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J14">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N14">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O14">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P14">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q14">
-        <v>14.741076846608</v>
+        <v>178.4094657131907</v>
       </c>
       <c r="R14">
-        <v>88.44646107964797</v>
+        <v>1070.456794279144</v>
       </c>
       <c r="S14">
-        <v>0.002612735620020712</v>
+        <v>0.02199098817148267</v>
       </c>
       <c r="T14">
-        <v>0.002521030247524295</v>
+        <v>0.02325402487991135</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H15">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I15">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J15">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>125.450742</v>
       </c>
       <c r="O15">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P15">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q15">
-        <v>2.370433587003999</v>
+        <v>30.97465241602267</v>
       </c>
       <c r="R15">
-        <v>21.333902283036</v>
+        <v>278.771871744204</v>
       </c>
       <c r="S15">
-        <v>0.0004201400163709161</v>
+        <v>0.003817976877928512</v>
       </c>
       <c r="T15">
-        <v>0.0006080900501471531</v>
+        <v>0.006055889481952049</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H16">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I16">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J16">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N16">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O16">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P16">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q16">
-        <v>0.4536225536686667</v>
+        <v>2.449761510898445</v>
       </c>
       <c r="R16">
-        <v>4.082602983018</v>
+        <v>22.047853598086</v>
       </c>
       <c r="S16">
-        <v>8.040089719005859E-05</v>
+        <v>0.0003019608639808742</v>
       </c>
       <c r="T16">
-        <v>0.0001163683146073283</v>
+        <v>0.0004789556559952454</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H17">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I17">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J17">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N17">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O17">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P17">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q17">
-        <v>0.561546112645</v>
+        <v>13.901498814728</v>
       </c>
       <c r="R17">
-        <v>3.36927667587</v>
+        <v>83.40899288836799</v>
       </c>
       <c r="S17">
-        <v>9.952946762701119E-05</v>
+        <v>0.001713517244045877</v>
       </c>
       <c r="T17">
-        <v>9.603604608326051E-05</v>
+        <v>0.001811931883846466</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H18">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I18">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J18">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N18">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O18">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P18">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q18">
-        <v>9.032673694673999</v>
+        <v>1.457247421104889</v>
       </c>
       <c r="R18">
-        <v>81.294063252066</v>
+        <v>13.115226789944</v>
       </c>
       <c r="S18">
-        <v>0.001600967727912587</v>
+        <v>0.0001796222564331793</v>
       </c>
       <c r="T18">
-        <v>0.002317162155510714</v>
+        <v>0.0002849080987751732</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H19">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I19">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J19">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N19">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O19">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P19">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q19">
-        <v>0.4806160678573332</v>
+        <v>4.358888784492889</v>
       </c>
       <c r="R19">
-        <v>4.325544610715999</v>
+        <v>39.22999906043599</v>
       </c>
       <c r="S19">
-        <v>8.518527737911461E-05</v>
+        <v>0.00053728243239453</v>
       </c>
       <c r="T19">
-        <v>0.0001232929917999851</v>
+        <v>0.0008522112980791525</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H20">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I20">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J20">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N20">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O20">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P20">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q20">
-        <v>1344.368083070068</v>
+        <v>2217.272010042938</v>
       </c>
       <c r="R20">
-        <v>5377.472332280271</v>
+        <v>8869.088040171753</v>
       </c>
       <c r="S20">
-        <v>0.2382782759771292</v>
+        <v>0.2733038987079305</v>
       </c>
       <c r="T20">
-        <v>0.1532765725097289</v>
+        <v>0.1926672753636577</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H21">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I21">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J21">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>125.450742</v>
       </c>
       <c r="O21">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P21">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q21">
-        <v>216.180628495859</v>
+        <v>384.9528361531221</v>
       </c>
       <c r="R21">
-        <v>1297.083770975154</v>
+        <v>2309.717016918732</v>
       </c>
       <c r="S21">
-        <v>0.03831625289705781</v>
+        <v>0.04744979888024024</v>
       </c>
       <c r="T21">
-        <v>0.03697137658516991</v>
+        <v>0.05017504420918904</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H22">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I22">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J22">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N22">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O22">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P22">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q22">
-        <v>41.36981912913784</v>
+        <v>30.44562466280634</v>
       </c>
       <c r="R22">
-        <v>248.218914774827</v>
+        <v>182.673747976838</v>
       </c>
       <c r="S22">
-        <v>0.007332462964358293</v>
+        <v>0.003752768213035872</v>
       </c>
       <c r="T22">
-        <v>0.007075098138652227</v>
+        <v>0.003968305776619993</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H23">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I23">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J23">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N23">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O23">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P23">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q23">
-        <v>51.21231500707626</v>
+        <v>172.767762609036</v>
       </c>
       <c r="R23">
-        <v>204.849260028305</v>
+        <v>691.071050436144</v>
       </c>
       <c r="S23">
-        <v>0.009076965068091244</v>
+        <v>0.02129558433887476</v>
       </c>
       <c r="T23">
-        <v>0.005838912879162784</v>
+        <v>0.01501245401637194</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H24">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I24">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J24">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N24">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O24">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P24">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q24">
-        <v>823.7687345548666</v>
+        <v>18.11066417135867</v>
       </c>
       <c r="R24">
-        <v>4942.612407329199</v>
+        <v>108.663985028152</v>
       </c>
       <c r="S24">
-        <v>0.1460062882669349</v>
+        <v>0.002232344567469871</v>
       </c>
       <c r="T24">
-        <v>0.140881559630123</v>
+        <v>0.002360557684251594</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H25">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I25">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J25">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N25">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O25">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P25">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q25">
-        <v>43.83159443244566</v>
+        <v>54.17224953906467</v>
       </c>
       <c r="R25">
-        <v>262.989566594674</v>
+        <v>325.033497234388</v>
       </c>
       <c r="S25">
-        <v>0.007768792554819637</v>
+        <v>0.006677343570723445</v>
       </c>
       <c r="T25">
-        <v>0.007496112835667081</v>
+        <v>0.007060852032410064</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H26">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I26">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J26">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N26">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O26">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P26">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q26">
-        <v>37.65970751974667</v>
+        <v>2093.098439990474</v>
       </c>
       <c r="R26">
-        <v>225.95824511848</v>
+        <v>12558.59063994284</v>
       </c>
       <c r="S26">
-        <v>0.006674875947006897</v>
+        <v>0.2579980992128277</v>
       </c>
       <c r="T26">
-        <v>0.006440592010891388</v>
+        <v>0.2728160358816852</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H27">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I27">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J27">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>125.450742</v>
       </c>
       <c r="O27">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P27">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q27">
-        <v>6.055855790623334</v>
+        <v>363.3943770419061</v>
       </c>
       <c r="R27">
-        <v>54.50270211561</v>
+        <v>3270.549393377154</v>
       </c>
       <c r="S27">
-        <v>0.001073351037954265</v>
+        <v>0.04479247452015113</v>
       </c>
       <c r="T27">
-        <v>0.001553515640173831</v>
+        <v>0.0710476474819205</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H28">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I28">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J28">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N28">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O28">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P28">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q28">
-        <v>1.158890417117223</v>
+        <v>28.74058266086234</v>
       </c>
       <c r="R28">
-        <v>10.430013754055</v>
+        <v>258.665243947761</v>
       </c>
       <c r="S28">
-        <v>0.0002054038727299328</v>
+        <v>0.003542602466802938</v>
       </c>
       <c r="T28">
-        <v>0.0002972914895078551</v>
+        <v>0.005619103966153195</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H29">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I29">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J29">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N29">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O29">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P29">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q29">
-        <v>1.434607700720834</v>
+        <v>163.092274091628</v>
       </c>
       <c r="R29">
-        <v>8.607646204325</v>
+        <v>978.553644549768</v>
       </c>
       <c r="S29">
-        <v>0.0002542725120717235</v>
+        <v>0.02010297074805953</v>
       </c>
       <c r="T29">
-        <v>0.0002453477072593054</v>
+        <v>0.02125757052344357</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H30">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I30">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J30">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N30">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O30">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P30">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q30">
-        <v>23.076187242115</v>
+        <v>17.09641521318267</v>
       </c>
       <c r="R30">
-        <v>207.685685179035</v>
+        <v>153.867736918644</v>
       </c>
       <c r="S30">
-        <v>0.004090065943561981</v>
+        <v>0.00210732689112055</v>
       </c>
       <c r="T30">
-        <v>0.005919760812619268</v>
+        <v>0.003342539560348432</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>8.690129000000001</v>
+      </c>
+      <c r="H31">
+        <v>26.070387</v>
+      </c>
+      <c r="I31">
+        <v>0.3348468670842908</v>
+      </c>
+      <c r="J31">
+        <v>0.3840810336190553</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.884659333333333</v>
+      </c>
+      <c r="N31">
+        <v>17.653978</v>
+      </c>
+      <c r="O31">
+        <v>0.01882470426023795</v>
+      </c>
+      <c r="P31">
+        <v>0.02603131977462027</v>
+      </c>
+      <c r="Q31">
+        <v>51.13844872772066</v>
+      </c>
+      <c r="R31">
+        <v>460.2460385494859</v>
+      </c>
+      <c r="S31">
+        <v>0.006303393245328979</v>
+      </c>
+      <c r="T31">
+        <v>0.009998136205504307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H32">
+        <v>1.419613</v>
+      </c>
+      <c r="I32">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J32">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>240.859306</v>
+      </c>
+      <c r="N32">
+        <v>481.718612</v>
+      </c>
+      <c r="O32">
+        <v>0.770495783518506</v>
+      </c>
+      <c r="P32">
+        <v>0.7103085338816119</v>
+      </c>
+      <c r="Q32">
+        <v>113.9756673228593</v>
+      </c>
+      <c r="R32">
+        <v>683.854003937156</v>
+      </c>
+      <c r="S32">
+        <v>0.01404879243326231</v>
+      </c>
+      <c r="T32">
+        <v>0.01485567479861756</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H33">
+        <v>1.419613</v>
+      </c>
+      <c r="I33">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J33">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>41.816914</v>
+      </c>
+      <c r="N33">
+        <v>125.450742</v>
+      </c>
+      <c r="O33">
+        <v>0.133770027207319</v>
+      </c>
+      <c r="P33">
+        <v>0.1849808797181794</v>
+      </c>
+      <c r="Q33">
+        <v>19.78794491142733</v>
+      </c>
+      <c r="R33">
+        <v>178.091504202846</v>
+      </c>
+      <c r="S33">
+        <v>0.002439088423619308</v>
+      </c>
+      <c r="T33">
+        <v>0.003868763589307348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H34">
+        <v>1.419613</v>
+      </c>
+      <c r="I34">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J34">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>3.307267666666667</v>
+      </c>
+      <c r="N34">
+        <v>9.921803000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.01057976888853842</v>
+      </c>
+      <c r="P34">
+        <v>0.01462999594956937</v>
+      </c>
+      <c r="Q34">
+        <v>1.565013391359889</v>
+      </c>
+      <c r="R34">
+        <v>14.085120522239</v>
+      </c>
+      <c r="S34">
+        <v>0.0001929056333419799</v>
+      </c>
+      <c r="T34">
+        <v>0.0003059775460449681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H35">
+        <v>1.419613</v>
+      </c>
+      <c r="I35">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J35">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>18.767532</v>
+      </c>
+      <c r="N35">
+        <v>37.535064</v>
+      </c>
+      <c r="O35">
+        <v>0.06003631129389966</v>
+      </c>
+      <c r="P35">
+        <v>0.05534657705729765</v>
+      </c>
+      <c r="Q35">
+        <v>8.880877468371999</v>
+      </c>
+      <c r="R35">
+        <v>53.285264810232</v>
+      </c>
+      <c r="S35">
+        <v>0.001094668775441079</v>
+      </c>
+      <c r="T35">
+        <v>0.001157540295182319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.1448183333333334</v>
-      </c>
-      <c r="H31">
-        <v>0.434455</v>
-      </c>
-      <c r="I31">
-        <v>0.01251559606233833</v>
-      </c>
-      <c r="J31">
-        <v>0.01477148994151142</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>8.478567333333332</v>
-      </c>
-      <c r="N31">
-        <v>25.435702</v>
-      </c>
-      <c r="O31">
-        <v>0.01738844461978203</v>
-      </c>
-      <c r="P31">
-        <v>0.02132366351038126</v>
-      </c>
-      <c r="Q31">
-        <v>1.227851990267778</v>
-      </c>
-      <c r="R31">
-        <v>11.05066791241</v>
-      </c>
-      <c r="S31">
-        <v>0.0002176267490135322</v>
-      </c>
-      <c r="T31">
-        <v>0.0003149822810597709</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H36">
+        <v>1.419613</v>
+      </c>
+      <c r="I36">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J36">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.967337333333333</v>
+      </c>
+      <c r="N36">
+        <v>5.902012</v>
+      </c>
+      <c r="O36">
+        <v>0.006293404831498911</v>
+      </c>
+      <c r="P36">
+        <v>0.008702693618721296</v>
+      </c>
+      <c r="Q36">
+        <v>0.9309525512617778</v>
+      </c>
+      <c r="R36">
+        <v>8.378572961355999</v>
+      </c>
+      <c r="S36">
+        <v>0.0001147504503820491</v>
+      </c>
+      <c r="T36">
+        <v>0.000182011590886047</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H37">
+        <v>1.419613</v>
+      </c>
+      <c r="I37">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J37">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>5.884659333333333</v>
+      </c>
+      <c r="N37">
+        <v>17.653978</v>
+      </c>
+      <c r="O37">
+        <v>0.01882470426023795</v>
+      </c>
+      <c r="P37">
+        <v>0.02603131977462027</v>
+      </c>
+      <c r="Q37">
+        <v>2.784646296723778</v>
+      </c>
+      <c r="R37">
+        <v>25.061816670514</v>
+      </c>
+      <c r="S37">
+        <v>0.0003432392083470494</v>
+      </c>
+      <c r="T37">
+        <v>0.0005444293609106986</v>
       </c>
     </row>
   </sheetData>
